--- a/Analyses/input/SEEDLINGDATA.xlsx
+++ b/Analyses/input/SEEDLINGDATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/Data/Janzen-Connell /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/Analyses/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D62F401-A993-EF4F-B78D-7B1995B6AC78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9804779A-4938-4B45-869F-D87FCFF79652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16680" xr2:uid="{6C4E6C01-6C6E-C340-9804-242C48F7C622}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="17">
   <si>
     <t>Site</t>
   </si>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48DDFB1-FBAD-BD41-AE3B-F55F4D1600DB}">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,6 +494,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -502,6 +508,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -519,6 +531,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -536,6 +554,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -544,6 +568,12 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -561,6 +591,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -569,6 +605,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
       <c r="B9">
         <v>2</v>
       </c>
@@ -589,6 +628,12 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -597,6 +642,12 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -605,6 +656,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -622,6 +679,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
@@ -639,6 +702,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -656,6 +725,12 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -673,6 +748,12 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -689,7 +770,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -706,7 +793,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -723,7 +816,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -740,7 +839,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
       <c r="B20">
         <v>3</v>
       </c>
@@ -751,7 +853,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
@@ -759,7 +867,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -773,7 +887,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -787,7 +907,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
@@ -801,7 +927,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
@@ -809,7 +941,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -823,7 +961,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
       <c r="B27">
         <v>4</v>
       </c>
@@ -843,7 +984,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
@@ -851,7 +998,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -868,7 +1021,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -876,7 +1035,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
@@ -893,7 +1058,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -901,7 +1072,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
       <c r="B33">
         <v>5</v>
       </c>
@@ -912,7 +1086,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
@@ -929,7 +1109,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
@@ -946,7 +1132,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
       <c r="C36" t="s">
         <v>10</v>
       </c>
@@ -963,7 +1155,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -980,7 +1178,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -997,7 +1201,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -1014,7 +1224,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -1031,7 +1247,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -1048,7 +1270,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -1065,7 +1293,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1316,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
@@ -1099,7 +1339,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1362,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -1124,7 +1376,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
       <c r="B47">
         <v>6</v>
       </c>
@@ -1144,7 +1399,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
       <c r="C48" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1422,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
       <c r="C49" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1445,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
@@ -1195,7 +1468,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
       <c r="C51" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1491,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
       <c r="C52" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1505,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1528,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -1254,7 +1551,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -1271,7 +1574,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -1288,7 +1597,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
@@ -1305,7 +1620,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -1322,7 +1643,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -1339,7 +1666,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
       <c r="C60" t="s">
         <v>13</v>
       </c>
@@ -1356,7 +1689,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
@@ -1373,7 +1712,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
@@ -1390,7 +1735,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
       <c r="C63" t="s">
         <v>13</v>
       </c>
@@ -1407,7 +1758,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -1424,7 +1781,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
       <c r="B65">
         <v>7</v>
       </c>
@@ -1444,7 +1804,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
       <c r="C66" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1827,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
       <c r="C67" t="s">
         <v>8</v>
       </c>
@@ -1478,7 +1850,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
       <c r="C68" t="s">
         <v>10</v>
       </c>
@@ -1486,7 +1864,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -1503,7 +1887,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -1520,7 +1910,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -1537,7 +1933,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -1554,7 +1956,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -1562,7 +1970,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
@@ -1570,7 +1984,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
       <c r="C75" t="s">
         <v>14</v>
       </c>
@@ -1578,7 +1998,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
       <c r="B76">
         <v>8</v>
       </c>
@@ -1598,7 +2021,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
@@ -1615,7 +2044,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
       <c r="C78" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +2067,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
       <c r="C79" t="s">
         <v>11</v>
       </c>
@@ -1649,7 +2090,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
@@ -1666,7 +2113,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
@@ -1683,7 +2136,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
       <c r="C82" t="s">
         <v>12</v>
       </c>
@@ -1700,7 +2159,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
@@ -1708,7 +2173,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
       <c r="C84" t="s">
         <v>14</v>
       </c>
@@ -1725,7 +2196,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
       <c r="C85" t="s">
         <v>14</v>
       </c>
@@ -1742,7 +2219,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
@@ -1759,7 +2242,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
       <c r="B87">
         <v>9</v>
       </c>
@@ -1779,7 +2265,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
       <c r="C88" t="s">
         <v>8</v>
       </c>
@@ -1796,7 +2288,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
       <c r="C89" t="s">
         <v>10</v>
       </c>
@@ -1804,7 +2302,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
       <c r="C90" t="s">
         <v>11</v>
       </c>
@@ -1821,7 +2325,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
       <c r="C91" t="s">
         <v>12</v>
       </c>
@@ -1829,7 +2339,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
+      </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
@@ -1837,7 +2353,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>9</v>
+      </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
@@ -1854,7 +2376,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
       <c r="B94">
         <v>10</v>
       </c>
@@ -1874,7 +2399,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
       <c r="C95" t="s">
         <v>10</v>
       </c>
@@ -1891,7 +2422,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
       <c r="C96" t="s">
         <v>11</v>
       </c>
@@ -1908,7 +2445,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
       <c r="C97" t="s">
         <v>12</v>
       </c>
@@ -1916,7 +2459,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
@@ -1933,7 +2482,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
       <c r="C99" t="s">
         <v>13</v>
       </c>
@@ -1950,7 +2505,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
@@ -1967,7 +2528,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
       <c r="C101" t="s">
         <v>14</v>
       </c>
@@ -1984,7 +2551,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
       <c r="C102" t="s">
         <v>14</v>
       </c>
@@ -2001,7 +2574,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103">
+        <v>10</v>
+      </c>
       <c r="C103" t="s">
         <v>14</v>
       </c>
@@ -2018,7 +2597,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>10</v>
+      </c>
       <c r="C104" t="s">
         <v>14</v>
       </c>
@@ -2035,7 +2620,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
       <c r="B105">
         <v>11</v>
       </c>
@@ -2055,7 +2643,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106">
+        <v>11</v>
+      </c>
       <c r="C106" t="s">
         <v>8</v>
       </c>
@@ -2072,7 +2666,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107">
+        <v>11</v>
+      </c>
       <c r="C107" t="s">
         <v>10</v>
       </c>
@@ -2080,7 +2680,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
       <c r="C108" t="s">
         <v>11</v>
       </c>
@@ -2088,7 +2694,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
       <c r="C109" t="s">
         <v>12</v>
       </c>
@@ -2105,7 +2717,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110">
+        <v>11</v>
+      </c>
       <c r="C110" t="s">
         <v>12</v>
       </c>
@@ -2122,7 +2740,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111">
+        <v>11</v>
+      </c>
       <c r="C111" t="s">
         <v>13</v>
       </c>
@@ -2139,7 +2763,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112">
+        <v>11</v>
+      </c>
       <c r="C112" t="s">
         <v>13</v>
       </c>
@@ -2156,7 +2786,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113">
+        <v>11</v>
+      </c>
       <c r="C113" t="s">
         <v>14</v>
       </c>
@@ -2164,7 +2800,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
       <c r="B114">
         <v>12</v>
       </c>
@@ -2184,7 +2823,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115">
+        <v>12</v>
+      </c>
       <c r="C115" t="s">
         <v>10</v>
       </c>
@@ -2201,7 +2846,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116">
+        <v>12</v>
+      </c>
       <c r="C116" t="s">
         <v>11</v>
       </c>
@@ -2209,7 +2860,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
       <c r="C117" t="s">
         <v>12</v>
       </c>
@@ -2226,7 +2883,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118">
+        <v>12</v>
+      </c>
       <c r="C118" t="s">
         <v>12</v>
       </c>
@@ -2243,7 +2906,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119">
+        <v>12</v>
+      </c>
       <c r="C119" t="s">
         <v>12</v>
       </c>
@@ -2260,7 +2929,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
       <c r="C120" t="s">
         <v>12</v>
       </c>
@@ -2277,7 +2952,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121">
+        <v>12</v>
+      </c>
       <c r="C121" t="s">
         <v>12</v>
       </c>
@@ -2294,7 +2975,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122">
+        <v>12</v>
+      </c>
       <c r="C122" t="s">
         <v>12</v>
       </c>
@@ -2311,7 +2998,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123">
+        <v>12</v>
+      </c>
       <c r="C123" t="s">
         <v>12</v>
       </c>
@@ -2328,7 +3021,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124">
+        <v>12</v>
+      </c>
       <c r="C124" t="s">
         <v>13</v>
       </c>
@@ -2345,7 +3044,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125">
+        <v>12</v>
+      </c>
       <c r="C125" t="s">
         <v>13</v>
       </c>
@@ -2362,7 +3067,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126">
+        <v>12</v>
+      </c>
       <c r="C126" t="s">
         <v>14</v>
       </c>
@@ -2379,7 +3090,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
       <c r="B127">
         <v>13</v>
       </c>
@@ -2399,7 +3113,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128">
+        <v>13</v>
+      </c>
       <c r="C128" t="s">
         <v>10</v>
       </c>
@@ -2407,7 +3127,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129">
+        <v>13</v>
+      </c>
       <c r="C129" t="s">
         <v>11</v>
       </c>
@@ -2415,7 +3141,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130">
+        <v>13</v>
+      </c>
       <c r="C130" t="s">
         <v>12</v>
       </c>
@@ -2432,7 +3164,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131">
+        <v>13</v>
+      </c>
       <c r="C131" t="s">
         <v>12</v>
       </c>
@@ -2449,7 +3187,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132">
+        <v>13</v>
+      </c>
       <c r="C132" t="s">
         <v>12</v>
       </c>
@@ -2466,7 +3210,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133">
+        <v>13</v>
+      </c>
       <c r="C133" t="s">
         <v>12</v>
       </c>
@@ -2483,7 +3233,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134">
+        <v>13</v>
+      </c>
       <c r="C134" t="s">
         <v>13</v>
       </c>
@@ -2500,7 +3256,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135">
+        <v>13</v>
+      </c>
       <c r="C135" t="s">
         <v>14</v>
       </c>
@@ -2517,7 +3279,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
       <c r="B136">
         <v>14</v>
       </c>
@@ -2537,7 +3302,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137">
+        <v>14</v>
+      </c>
       <c r="C137" t="s">
         <v>8</v>
       </c>
@@ -2554,7 +3325,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138">
+        <v>14</v>
+      </c>
       <c r="C138" t="s">
         <v>10</v>
       </c>
@@ -2571,7 +3348,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139">
+        <v>14</v>
+      </c>
       <c r="C139" t="s">
         <v>10</v>
       </c>
@@ -2588,7 +3371,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140">
+        <v>14</v>
+      </c>
       <c r="C140" t="s">
         <v>10</v>
       </c>
@@ -2605,7 +3394,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141">
+        <v>14</v>
+      </c>
       <c r="C141" t="s">
         <v>10</v>
       </c>
@@ -2622,7 +3417,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142">
+        <v>14</v>
+      </c>
       <c r="C142" t="s">
         <v>10</v>
       </c>
@@ -2639,7 +3440,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143">
+        <v>14</v>
+      </c>
       <c r="C143" t="s">
         <v>10</v>
       </c>
@@ -2656,7 +3463,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144">
+        <v>14</v>
+      </c>
       <c r="C144" t="s">
         <v>10</v>
       </c>
@@ -2673,7 +3486,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145">
+        <v>14</v>
+      </c>
       <c r="C145" t="s">
         <v>10</v>
       </c>
@@ -2690,7 +3509,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146">
+        <v>14</v>
+      </c>
       <c r="C146" t="s">
         <v>10</v>
       </c>
@@ -2707,7 +3532,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147">
+        <v>14</v>
+      </c>
       <c r="C147" t="s">
         <v>10</v>
       </c>
@@ -2724,7 +3555,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148">
+        <v>14</v>
+      </c>
       <c r="C148" t="s">
         <v>10</v>
       </c>
@@ -2741,7 +3578,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149">
+        <v>14</v>
+      </c>
       <c r="C149" t="s">
         <v>10</v>
       </c>
@@ -2758,7 +3601,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150">
+        <v>14</v>
+      </c>
       <c r="C150" t="s">
         <v>10</v>
       </c>
@@ -2775,7 +3624,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151">
+        <v>14</v>
+      </c>
       <c r="C151" t="s">
         <v>10</v>
       </c>
@@ -2792,7 +3647,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152">
+        <v>14</v>
+      </c>
       <c r="C152" t="s">
         <v>11</v>
       </c>
@@ -2800,7 +3661,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153">
+        <v>14</v>
+      </c>
       <c r="C153" t="s">
         <v>12</v>
       </c>
@@ -2808,7 +3675,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154">
+        <v>14</v>
+      </c>
       <c r="C154" t="s">
         <v>13</v>
       </c>
@@ -2825,7 +3698,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155">
+        <v>14</v>
+      </c>
       <c r="C155" t="s">
         <v>14</v>
       </c>

--- a/Analyses/input/SEEDLINGDATA.xlsx
+++ b/Analyses/input/SEEDLINGDATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/Analyses/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9804779A-4938-4B45-869F-D87FCFF79652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A93A2A-954F-1B46-9576-4B56BC63EAA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16680" xr2:uid="{6C4E6C01-6C6E-C340-9804-242C48F7C622}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="17">
   <si>
     <t>Site</t>
   </si>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48DDFB1-FBAD-BD41-AE3B-F55F4D1600DB}">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="K141" sqref="K141"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,6 +883,9 @@
       <c r="E22">
         <v>33</v>
       </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
@@ -903,6 +906,9 @@
       <c r="E23">
         <v>201</v>
       </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
@@ -922,6 +928,9 @@
       </c>
       <c r="E24">
         <v>180</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
       </c>
       <c r="G24">
         <v>1</v>
